--- a/public/download/cgb_XuQiuJiHuaBiao.xlsx
+++ b/public/download/cgb_XuQiuJiHuaBiao.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27975" windowHeight="12270"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="27980" windowHeight="15060"/>
   </bookViews>
   <sheets>
     <sheet name="需求计划表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -40,10 +45,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填制日期：2017年7月1日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>质量技术标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,14 +86,18 @@
   </si>
   <si>
     <t>经办人：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填制日期：2018年7月1日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,22 +180,22 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -198,7 +203,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -216,55 +221,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,349 +560,349 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="F2" sqref="F2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="5" width="7.625" customWidth="1"/>
-    <col min="6" max="6" width="9.125" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45.95" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="46" customHeight="1">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="26.1" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="26" customHeight="1">
+      <c r="A2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" s="7" customFormat="1" ht="24" customHeight="1">
+      <c r="A3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="I3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="24" customHeight="1">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A8" s="11">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="11">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="11">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="11">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="11">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A16" s="11">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="K3" s="11"/>
-    </row>
-    <row r="4" spans="1:11" s="15" customFormat="1" ht="24" customHeight="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="14"/>
-    </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A5" s="16">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A6" s="16">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A7" s="16">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" s="4" customFormat="1" ht="24" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A8" s="16">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="16">
-        <v>5</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="16">
-        <v>6</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="16">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="16">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="16">
-        <v>9</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="16">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="16">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A16" s="16">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="16">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="16">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="16">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" s="6" customFormat="1" ht="21" customHeight="1">
-      <c r="A20" s="16">
-        <v>16</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" s="8" customFormat="1" ht="24" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="17"/>
+      <c r="J21" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -917,6 +922,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.70866141732283472" bottom="0.70866141732283472" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>